--- a/PartnerData/excel/공대 제휴업체.xlsx
+++ b/PartnerData/excel/공대 제휴업체.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5efb5bcb5076d38/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahyeon_gu/Partnermap/PartnerData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{79A286F3-E519-4F6B-88F8-DEDC9A5EB08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F72D4CE8-3C10-4631-B03D-3221AA3D7F83}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95875CFB-4F74-EE4F-862B-A1D9668783C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB069C05-CFB1-4D6D-AB9C-3D8A3AA6851B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{FB069C05-CFB1-4D6D-AB9C-3D8A3AA6851B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,18 +94,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사진관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>에이블 스튜디오</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미용실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>충북 청주시 서원구 내수동로102번길 54</t>
   </si>
   <si>
@@ -307,13 +299,21 @@
   </si>
   <si>
     <t>0507-1440-7111</t>
+  </si>
+  <si>
+    <t>080-325-5131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,17 +712,17 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="28.8984375" customWidth="1"/>
-    <col min="3" max="3" width="23.09765625" customWidth="1"/>
-    <col min="4" max="5" width="65.296875" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="5" width="65.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -739,92 +739,92 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -832,16 +832,16 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -852,13 +852,13 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -866,64 +866,67 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -934,139 +937,139 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5">
       <c r="C18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5">
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5">
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5">
       <c r="E21" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5">
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5">
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5">
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5">
       <c r="E27" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5">
       <c r="E29" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5">
       <c r="E32" s="2"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="5:5">
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:5">
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:5">
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="5:5">
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="5:5">
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="5:5">
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="5:5">
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="5:5">
       <c r="E41" s="2"/>
     </row>
   </sheetData>
